--- a/scene_cat_exp_2023.2/input_files/3_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/3_scenecat_memory_bedrooms_2.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,44 +482,49 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_6ddrx.png</t>
+          <t>stimuli/img_pey7u.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>82.2</v>
+        <v>30.34883720930232</v>
       </c>
       <c r="N2">
-        <v>63.68571428571428</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="O2">
-        <v>72.94285714285715</v>
+        <v>25.34883720930232</v>
       </c>
       <c r="P2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -541,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -550,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -565,29 +570,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_0eflx.png</t>
+          <t>stimuli/img_i6wsx.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>76.05128205128206</v>
+        <v>79.07142857142857</v>
       </c>
       <c r="N3">
-        <v>53.53846153846154</v>
+        <v>58</v>
       </c>
       <c r="O3">
-        <v>64.7948717948718</v>
+        <v>68.53571428571428</v>
       </c>
       <c r="P3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +605,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -609,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -618,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -638,20 +643,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_0kqc0.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>50.58333333333334</v>
+        <v>43.74468085106383</v>
       </c>
       <c r="N4">
-        <v>32.11111111111111</v>
+        <v>27.14893617021277</v>
       </c>
       <c r="O4">
-        <v>41.34722222222223</v>
+        <v>35.4468085106383</v>
       </c>
       <c r="P4">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -673,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -682,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -691,7 +696,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -706,29 +711,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_zgg62.png</t>
+          <t>stimuli/img_314bq.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>82.18421052631579</v>
+        <v>37.08888888888889</v>
       </c>
       <c r="N5">
-        <v>63.52631578947368</v>
+        <v>20.04444444444444</v>
       </c>
       <c r="O5">
-        <v>72.85526315789474</v>
+        <v>28.56666666666667</v>
       </c>
       <c r="P5">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +746,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -750,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -759,7 +764,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -779,29 +784,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_di6f0.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>12.88888888888889</v>
+        <v>94.04347826086956</v>
       </c>
       <c r="N6">
-        <v>9.222222222222221</v>
+        <v>83.34782608695652</v>
       </c>
       <c r="O6">
-        <v>11.05555555555556</v>
+        <v>88.69565217391303</v>
       </c>
       <c r="P6">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -814,7 +819,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -823,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -832,7 +837,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -852,29 +857,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_4o8l0.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>40.02777777777778</v>
+        <v>46.02173913043478</v>
       </c>
       <c r="N7">
-        <v>20.88888888888889</v>
+        <v>31.45652173913043</v>
       </c>
       <c r="O7">
-        <v>30.45833333333334</v>
+        <v>38.73913043478261</v>
       </c>
       <c r="P7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -887,7 +892,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -896,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -905,7 +910,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -925,20 +930,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_71mhq.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>69.34210526315789</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N8">
-        <v>47.02631578947368</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O8">
-        <v>58.18421052631579</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -960,7 +965,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -969,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -978,7 +983,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -998,29 +1003,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_xbtev.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>77.11428571428571</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="N9">
-        <v>58.42857142857143</v>
+        <v>8.568181818181818</v>
       </c>
       <c r="O9">
-        <v>67.77142857142857</v>
+        <v>11.125</v>
       </c>
       <c r="P9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1038,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1042,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1051,40 +1056,35 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_2pk6v.png</t>
+          <t>stimuli/img_0jzz7.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>85.08108108108108</v>
+        <v>84.85106382978724</v>
       </c>
       <c r="N10">
-        <v>66.16216216216216</v>
+        <v>68.87234042553192</v>
       </c>
       <c r="O10">
-        <v>75.62162162162161</v>
+        <v>76.86170212765958</v>
       </c>
       <c r="P10">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_bklr1.png</t>
+          <t>stimuli/img_c0ecw.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>86.54761904761905</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="N11">
-        <v>67.73809523809524</v>
+        <v>17.82222222222222</v>
       </c>
       <c r="O11">
-        <v>77.14285714285714</v>
+        <v>18.35555555555555</v>
       </c>
       <c r="P11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1183,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1192,44 +1192,49 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_i7vab.png</t>
+          <t>stimuli/img_wgkqa.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>86.40000000000001</v>
+        <v>87.25581395348837</v>
       </c>
       <c r="N12">
-        <v>67.8</v>
+        <v>71.13953488372093</v>
       </c>
       <c r="O12">
-        <v>77.09999999999999</v>
+        <v>79.19767441860465</v>
       </c>
       <c r="P12">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1242,7 +1247,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1251,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1260,49 +1265,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_ybbmx.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>55.24324324324324</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N13">
-        <v>36.75675675675676</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O13">
-        <v>46</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1324,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1353,29 +1353,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>61.77272727272727</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N14">
-        <v>38.79545454545455</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O14">
-        <v>50.28409090909091</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1397,7 +1397,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1406,44 +1406,49 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_5yhyk.png</t>
+          <t>stimuli/img_95hiv.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>46.375</v>
+        <v>84.04545454545455</v>
       </c>
       <c r="N15">
-        <v>31.325</v>
+        <v>67.31818181818181</v>
       </c>
       <c r="O15">
-        <v>38.85</v>
+        <v>75.68181818181819</v>
       </c>
       <c r="P15">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1456,7 +1461,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1465,7 +1470,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1474,7 +1479,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1494,29 +1499,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_5m6x4.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>80.23076923076923</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N16">
-        <v>58.41025641025641</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O16">
-        <v>69.32051282051282</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1529,7 +1534,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1538,58 +1543,27 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
-        </is>
-      </c>
-      <c r="M17">
-        <v>71.74418604651163</v>
-      </c>
-      <c r="N17">
-        <v>48.44186046511628</v>
-      </c>
-      <c r="O17">
-        <v>60.09302325581395</v>
-      </c>
-      <c r="P17">
-        <v>43</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>5</v>
-      </c>
-      <c r="S17">
-        <v>5</v>
+          <t>stimuli/catch_17.jpg</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1602,7 +1576,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1611,27 +1585,58 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/catch_04.jpg</t>
-        </is>
+          <t>stimuli/img_xy930.png</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>70.5952380952381</v>
+      </c>
+      <c r="N18">
+        <v>49.47619047619047</v>
+      </c>
+      <c r="O18">
+        <v>60.03571428571429</v>
+      </c>
+      <c r="P18">
+        <v>42</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1644,7 +1649,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1653,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1662,7 +1667,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1682,20 +1687,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_bj99b.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>80.75</v>
+        <v>82.79069767441861</v>
       </c>
       <c r="N19">
-        <v>61.475</v>
+        <v>65.46511627906976</v>
       </c>
       <c r="O19">
-        <v>71.1125</v>
+        <v>74.12790697674419</v>
       </c>
       <c r="P19">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -1717,7 +1722,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1726,7 +1731,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1735,44 +1740,49 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_zv0dq.png</t>
+          <t>stimuli/img_eh0no.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>76.86842105263158</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="N20">
-        <v>52.71052631578947</v>
+        <v>36.02564102564103</v>
       </c>
       <c r="O20">
-        <v>64.78947368421052</v>
+        <v>44.84615384615385</v>
       </c>
       <c r="P20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1785,7 +1795,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1794,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1803,7 +1813,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1823,29 +1833,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_tujn3.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>92</v>
+        <v>81.40909090909091</v>
       </c>
       <c r="N21">
-        <v>78.16216216216216</v>
+        <v>62.52272727272727</v>
       </c>
       <c r="O21">
-        <v>85.08108108108108</v>
+        <v>71.96590909090909</v>
       </c>
       <c r="P21">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1858,7 +1868,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1867,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1876,7 +1886,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1896,29 +1906,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_h0hbk.png</t>
+          <t>stimuli/img_bbs77.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>86.80952380952381</v>
+        <v>31.64444444444445</v>
       </c>
       <c r="N22">
-        <v>69.19047619047619</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="O22">
-        <v>78</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="P22">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1931,7 +1941,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1940,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1949,7 +1959,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1969,29 +1979,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_qgbyn.png</t>
+          <t>stimuli/img_wz6x5.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>65.08108108108108</v>
+        <v>68.3695652173913</v>
       </c>
       <c r="N23">
-        <v>40.10810810810811</v>
+        <v>48.47826086956522</v>
       </c>
       <c r="O23">
-        <v>52.5945945945946</v>
+        <v>58.42391304347826</v>
       </c>
       <c r="P23">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2004,7 +2014,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2013,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2022,49 +2032,44 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_f63yi.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>33.44736842105263</v>
+        <v>85.27500000000001</v>
       </c>
       <c r="N24">
-        <v>11.39473684210526</v>
+        <v>68.47499999999999</v>
       </c>
       <c r="O24">
-        <v>22.42105263157895</v>
+        <v>76.875</v>
       </c>
       <c r="P24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2077,7 +2082,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2086,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2095,7 +2100,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2115,29 +2120,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_6a0hu.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>88.18918918918919</v>
+        <v>61.275</v>
       </c>
       <c r="N25">
-        <v>74.05405405405405</v>
+        <v>42.025</v>
       </c>
       <c r="O25">
-        <v>81.12162162162161</v>
+        <v>51.65</v>
       </c>
       <c r="P25">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2150,7 +2155,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2159,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2168,49 +2173,44 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_th7xh.png</t>
+          <t>stimuli/img_b17ma.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>82.35897435897436</v>
+        <v>23.0625</v>
       </c>
       <c r="N26">
-        <v>65.53846153846153</v>
+        <v>13.375</v>
       </c>
       <c r="O26">
-        <v>73.94871794871796</v>
+        <v>18.21875</v>
       </c>
       <c r="P26">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2232,7 +2232,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2261,29 +2261,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_xu1p3.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>75.70270270270271</v>
+        <v>75.27659574468085</v>
       </c>
       <c r="N27">
-        <v>54.86486486486486</v>
+        <v>56.68085106382978</v>
       </c>
       <c r="O27">
-        <v>65.28378378378379</v>
+        <v>65.97872340425532</v>
       </c>
       <c r="P27">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2305,7 +2305,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2334,29 +2334,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
+          <t>stimuli/img_6zz63.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>74.25</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="N28">
-        <v>54.33333333333334</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O28">
-        <v>64.29166666666667</v>
+        <v>79.13333333333333</v>
       </c>
       <c r="P28">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_cehin.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>65.25</v>
+        <v>78.86363636363636</v>
       </c>
       <c r="N29">
-        <v>44.8</v>
+        <v>60.02272727272727</v>
       </c>
       <c r="O29">
-        <v>55.025</v>
+        <v>69.44318181818181</v>
       </c>
       <c r="P29">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/3_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/3_scenecat_memory_bedrooms_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -502,29 +502,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_pey7u.png</t>
+          <t>stimuli/img_a9acb.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>30.34883720930232</v>
+        <v>77.11428571428571</v>
       </c>
       <c r="N2">
-        <v>20.34883720930232</v>
+        <v>58.42857142857143</v>
       </c>
       <c r="O2">
-        <v>25.34883720930232</v>
+        <v>67.77142857142857</v>
       </c>
       <c r="P2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,44 +555,49 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_i6wsx.png</t>
+          <t>stimuli/img_h0hbk.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>79.07142857142857</v>
+        <v>86.80952380952381</v>
       </c>
       <c r="N3">
-        <v>58</v>
+        <v>69.19047619047619</v>
       </c>
       <c r="O3">
-        <v>68.53571428571428</v>
+        <v>78</v>
       </c>
       <c r="P3">
         <v>42</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -605,7 +610,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -614,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -623,7 +628,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -643,29 +648,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_0kqc0.png</t>
+          <t>stimuli/img_71mhq.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>43.74468085106383</v>
+        <v>69.34210526315789</v>
       </c>
       <c r="N4">
-        <v>27.14893617021277</v>
+        <v>47.02631578947368</v>
       </c>
       <c r="O4">
-        <v>35.4468085106383</v>
+        <v>58.18421052631579</v>
       </c>
       <c r="P4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +683,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -687,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -696,7 +701,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -711,29 +716,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_314bq.png</t>
+          <t>stimuli/img_gqy6z.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>37.08888888888889</v>
+        <v>86.47368421052632</v>
       </c>
       <c r="N5">
-        <v>20.04444444444444</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="O5">
-        <v>28.56666666666667</v>
+        <v>77.44736842105263</v>
       </c>
       <c r="P5">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -746,7 +751,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -755,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -764,7 +769,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -784,20 +789,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_di6f0.png</t>
+          <t>stimuli/img_x0u5z.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>94.04347826086956</v>
+        <v>92</v>
       </c>
       <c r="N6">
-        <v>83.34782608695652</v>
+        <v>78.16216216216216</v>
       </c>
       <c r="O6">
-        <v>88.69565217391303</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="P6">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -819,7 +824,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -828,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -837,7 +842,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -857,29 +862,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_4o8l0.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>46.02173913043478</v>
+        <v>80.75</v>
       </c>
       <c r="N7">
-        <v>31.45652173913043</v>
+        <v>61.475</v>
       </c>
       <c r="O7">
-        <v>38.73913043478261</v>
+        <v>71.1125</v>
       </c>
       <c r="P7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +897,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -901,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -910,49 +915,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_kost0.png</t>
+          <t>stimuli/img_qbdgm.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>63.09090909090909</v>
+        <v>76.88095238095238</v>
       </c>
       <c r="N8">
-        <v>42.77272727272727</v>
+        <v>60.40476190476191</v>
       </c>
       <c r="O8">
-        <v>52.93181818181819</v>
+        <v>68.64285714285714</v>
       </c>
       <c r="P8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -983,49 +983,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_xbtev.png</t>
+          <t>stimuli/img_awuev.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>13.68181818181818</v>
+        <v>44.21052631578947</v>
       </c>
       <c r="N9">
-        <v>8.568181818181818</v>
+        <v>24.26315789473684</v>
       </c>
       <c r="O9">
-        <v>11.125</v>
+        <v>34.23684210526316</v>
       </c>
       <c r="P9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1038,7 +1033,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1047,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1056,7 +1051,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1071,29 +1066,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_0jzz7.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>84.85106382978724</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N10">
-        <v>68.87234042553192</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O10">
-        <v>76.86170212765958</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P10">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1101,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1115,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1124,7 +1119,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1139,29 +1134,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_c0ecw.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>18.88888888888889</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N11">
-        <v>17.82222222222222</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O11">
-        <v>18.35555555555555</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P11">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1169,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1183,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1192,40 +1187,35 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_wgkqa.png</t>
+          <t>stimuli/img_g2akb.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>87.25581395348837</v>
+        <v>87.875</v>
       </c>
       <c r="N12">
-        <v>71.13953488372093</v>
+        <v>79</v>
       </c>
       <c r="O12">
-        <v>79.19767441860465</v>
+        <v>83.4375</v>
       </c>
       <c r="P12">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -1247,7 +1237,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1256,21 +1246,16 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1280,29 +1265,8 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_dg5h7.png</t>
-        </is>
-      </c>
-      <c r="M13">
-        <v>88.72093023255815</v>
-      </c>
-      <c r="N13">
-        <v>76.06976744186046</v>
-      </c>
-      <c r="O13">
-        <v>82.3953488372093</v>
-      </c>
-      <c r="P13">
-        <v>43</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-      <c r="R13">
-        <v>10</v>
-      </c>
-      <c r="S13">
-        <v>10</v>
+          <t>stimuli/catch_12.jpg</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1279,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1324,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1333,49 +1297,44 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_w8yhd.png</t>
+          <t>stimuli/img_6ddrx.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>55.74418604651163</v>
+        <v>82.2</v>
       </c>
       <c r="N14">
-        <v>38.90697674418605</v>
+        <v>63.68571428571428</v>
       </c>
       <c r="O14">
-        <v>47.32558139534883</v>
+        <v>72.94285714285715</v>
       </c>
       <c r="P14">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1388,7 +1347,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1397,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1406,49 +1365,44 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_95hiv.png</t>
+          <t>stimuli/img_psgf7.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>84.04545454545455</v>
+        <v>26</v>
       </c>
       <c r="N15">
-        <v>67.31818181818181</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="O15">
-        <v>75.68181818181819</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="P15">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1461,7 +1415,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1470,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1479,49 +1433,44 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_abobq.png</t>
+          <t>stimuli/img_wijef.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>75.18421052631579</v>
+        <v>69.875</v>
       </c>
       <c r="N16">
-        <v>54.13157894736842</v>
+        <v>48.025</v>
       </c>
       <c r="O16">
-        <v>64.65789473684211</v>
+        <v>58.95</v>
       </c>
       <c r="P16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1534,7 +1483,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1543,27 +1492,58 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/catch_17.jpg</t>
-        </is>
+          <t>stimuli/img_okvvw.png</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>50.58333333333334</v>
+      </c>
+      <c r="N17">
+        <v>32.11111111111111</v>
+      </c>
+      <c r="O17">
+        <v>41.34722222222223</v>
+      </c>
+      <c r="P17">
+        <v>36</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1576,7 +1556,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1585,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1594,49 +1574,44 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_xy930.png</t>
+          <t>stimuli/img_h0px5.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>70.5952380952381</v>
+        <v>84.30232558139535</v>
       </c>
       <c r="N18">
-        <v>49.47619047619047</v>
+        <v>69.13953488372093</v>
       </c>
       <c r="O18">
-        <v>60.03571428571429</v>
+        <v>76.72093023255815</v>
       </c>
       <c r="P18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1649,7 +1624,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1658,7 +1633,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1667,7 +1642,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1687,29 +1662,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_bj99b.png</t>
+          <t>stimuli/img_ybbmx.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>82.79069767441861</v>
+        <v>55.24324324324324</v>
       </c>
       <c r="N19">
-        <v>65.46511627906976</v>
+        <v>36.75675675675676</v>
       </c>
       <c r="O19">
-        <v>74.12790697674419</v>
+        <v>46</v>
       </c>
       <c r="P19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1722,7 +1697,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1731,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1740,49 +1715,44 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_eh0no.png</t>
+          <t>stimuli/img_iqmdm.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>53.66666666666666</v>
+        <v>79.38888888888889</v>
       </c>
       <c r="N20">
-        <v>36.02564102564103</v>
+        <v>58.36111111111111</v>
       </c>
       <c r="O20">
-        <v>44.84615384615385</v>
+        <v>68.875</v>
       </c>
       <c r="P20">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1795,7 +1765,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1804,7 +1774,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1813,49 +1783,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_tujn3.png</t>
+          <t>stimuli/img_ozxpp.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>81.40909090909091</v>
+        <v>26.26470588235294</v>
       </c>
       <c r="N21">
-        <v>62.52272727272727</v>
+        <v>11.47058823529412</v>
       </c>
       <c r="O21">
-        <v>71.96590909090909</v>
+        <v>18.86764705882353</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1868,7 +1833,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1877,7 +1842,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1886,49 +1851,44 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_bbs77.png</t>
+          <t>stimuli/img_0eflx.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>31.64444444444445</v>
+        <v>76.05128205128206</v>
       </c>
       <c r="N22">
-        <v>21.26666666666667</v>
+        <v>53.53846153846154</v>
       </c>
       <c r="O22">
-        <v>26.45555555555556</v>
+        <v>64.7948717948718</v>
       </c>
       <c r="P22">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1901,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1950,7 +1910,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1959,49 +1919,44 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_wz6x5.png</t>
+          <t>stimuli/img_dmjh8.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>68.3695652173913</v>
+        <v>57.48648648648648</v>
       </c>
       <c r="N23">
-        <v>48.47826086956522</v>
+        <v>37.64864864864865</v>
       </c>
       <c r="O23">
-        <v>58.42391304347826</v>
+        <v>47.56756756756756</v>
       </c>
       <c r="P23">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2014,7 +1969,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2023,7 +1978,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2032,7 +1987,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2047,29 +2002,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_f63yi.png</t>
+          <t>stimuli/img_9z99v.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>85.27500000000001</v>
+        <v>81.15625</v>
       </c>
       <c r="N24">
-        <v>68.47499999999999</v>
+        <v>64.78125</v>
       </c>
       <c r="O24">
-        <v>76.875</v>
+        <v>72.96875</v>
       </c>
       <c r="P24">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2082,7 +2037,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2091,7 +2046,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2100,49 +2055,44 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_6a0hu.png</t>
+          <t>stimuli/img_a8y4y.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>61.275</v>
+        <v>75.15789473684211</v>
       </c>
       <c r="N25">
-        <v>42.025</v>
+        <v>53.76315789473684</v>
       </c>
       <c r="O25">
-        <v>51.65</v>
+        <v>64.46052631578948</v>
       </c>
       <c r="P25">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2105,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2164,7 +2114,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2173,44 +2123,49 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_b17ma.png</t>
+          <t>stimuli/img_th7xh.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>23.0625</v>
+        <v>82.35897435897436</v>
       </c>
       <c r="N26">
-        <v>13.375</v>
+        <v>65.53846153846153</v>
       </c>
       <c r="O26">
-        <v>18.21875</v>
+        <v>73.94871794871796</v>
       </c>
       <c r="P26">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2223,7 +2178,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2232,7 +2187,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2241,49 +2196,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_q8u19.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>75.27659574468085</v>
+        <v>91.19512195121951</v>
       </c>
       <c r="N27">
-        <v>56.68085106382978</v>
+        <v>73.58536585365853</v>
       </c>
       <c r="O27">
-        <v>65.97872340425532</v>
+        <v>82.39024390243901</v>
       </c>
       <c r="P27">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2296,7 +2246,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2305,7 +2255,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2314,7 +2264,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2334,29 +2284,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_6zz63.png</t>
+          <t>stimuli/img_oou46.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>87.66666666666667</v>
+        <v>75.70270270270271</v>
       </c>
       <c r="N28">
-        <v>70.59999999999999</v>
+        <v>54.86486486486486</v>
       </c>
       <c r="O28">
-        <v>79.13333333333333</v>
+        <v>65.28378378378379</v>
       </c>
       <c r="P28">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2319,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2378,7 +2328,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,7 +2337,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2407,29 +2357,963 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_cehin.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>78.86363636363636</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N29">
-        <v>60.02272727272727</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O29">
-        <v>69.44318181818181</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P29">
+        <v>46</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>256</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_rvssl.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>74.25</v>
+      </c>
+      <c r="N30">
+        <v>54.33333333333334</v>
+      </c>
+      <c r="O30">
+        <v>64.29166666666667</v>
+      </c>
+      <c r="P30">
+        <v>36</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>257</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_5m6x4.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>80.23076923076923</v>
+      </c>
+      <c r="N31">
+        <v>58.41025641025641</v>
+      </c>
+      <c r="O31">
+        <v>69.32051282051282</v>
+      </c>
+      <c r="P31">
+        <v>39</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>258</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_2pk6v.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>85.08108108108108</v>
+      </c>
+      <c r="N32">
+        <v>66.16216216216216</v>
+      </c>
+      <c r="O32">
+        <v>75.62162162162161</v>
+      </c>
+      <c r="P32">
+        <v>37</v>
+      </c>
+      <c r="Q32">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>259</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_2dnfy.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>59.97297297297298</v>
+      </c>
+      <c r="N33">
+        <v>37.56756756756756</v>
+      </c>
+      <c r="O33">
+        <v>48.77027027027027</v>
+      </c>
+      <c r="P33">
+        <v>37</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>260</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_le8uf.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>12.88888888888889</v>
+      </c>
+      <c r="N34">
+        <v>9.222222222222221</v>
+      </c>
+      <c r="O34">
+        <v>11.05555555555556</v>
+      </c>
+      <c r="P34">
+        <v>36</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>261</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_bj2gr.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>65.25</v>
+      </c>
+      <c r="N35">
+        <v>44.8</v>
+      </c>
+      <c r="O35">
+        <v>55.025</v>
+      </c>
+      <c r="P35">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>262</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_uxxo0.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>71.74418604651163</v>
+      </c>
+      <c r="N36">
+        <v>48.44186046511628</v>
+      </c>
+      <c r="O36">
+        <v>60.09302325581395</v>
+      </c>
+      <c r="P36">
+        <v>43</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>263</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_0nckg.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>65.94285714285714</v>
+      </c>
+      <c r="N37">
+        <v>41.17142857142857</v>
+      </c>
+      <c r="O37">
+        <v>53.55714285714285</v>
+      </c>
+      <c r="P37">
+        <v>35</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>264</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_wyctg.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>33.44736842105263</v>
+      </c>
+      <c r="N38">
+        <v>11.39473684210526</v>
+      </c>
+      <c r="O38">
+        <v>22.42105263157895</v>
+      </c>
+      <c r="P38">
+        <v>38</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>265</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_v8dra.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>61.77272727272727</v>
+      </c>
+      <c r="N39">
+        <v>38.79545454545455</v>
+      </c>
+      <c r="O39">
+        <v>50.28409090909091</v>
+      </c>
+      <c r="P39">
         <v>44</v>
       </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-      <c r="R29">
-        <v>7</v>
-      </c>
-      <c r="S29">
-        <v>7</v>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>266</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_2js6m.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>40.02777777777778</v>
+      </c>
+      <c r="N40">
+        <v>20.88888888888889</v>
+      </c>
+      <c r="O40">
+        <v>30.45833333333334</v>
+      </c>
+      <c r="P40">
+        <v>36</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>267</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_qgbyn.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>65.08108108108108</v>
+      </c>
+      <c r="N41">
+        <v>40.10810810810811</v>
+      </c>
+      <c r="O41">
+        <v>52.5945945945946</v>
+      </c>
+      <c r="P41">
+        <v>37</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>268</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>stimuli/img_b89t4.png</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>71.41463414634147</v>
+      </c>
+      <c r="N42">
+        <v>47.85365853658536</v>
+      </c>
+      <c r="O42">
+        <v>59.63414634146342</v>
+      </c>
+      <c r="P42">
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
